--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P30_trail5 Features.xlsx
@@ -2579,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2590,29 +2590,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2633,115 +2631,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2758,72 +2746,66 @@
         <v>1.530853274554507e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3332680988642531</v>
+        <v>7.90236972499072e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.2883469360490847</v>
+        <v>1.182794997837672e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>7.90236972499072e-07</v>
+        <v>0.04076719515768219</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.182794997837672e-06</v>
+        <v>0.249394977914851</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04076719515768219</v>
+        <v>0.06375685656288878</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.249394977914851</v>
+        <v>1.824814270858772</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06375685656288878</v>
+        <v>1.63791773506024</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.776555421883245</v>
+        <v>4.236030050831145</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.63791773506024</v>
+        <v>1.404889547686549e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.236030050831145</v>
+        <v>417098856.660193</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.404889547686549e-16</v>
+        <v>2.831601142269068e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>417098856.660193</v>
+        <v>24.44106804494578</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.831601142269068e-07</v>
+        <v>0.0001806264015367772</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.44106804494578</v>
+        <v>11.1509120519839</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001806264015367772</v>
+        <v>1.081494342410499</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.1509120519839</v>
+        <v>0.02245959967220146</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.081494342410499</v>
+        <v>2.504216125073087</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02245959967220146</v>
+        <v>0.9596223558616217</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.504216125073087</v>
+        <v>1.618746174900141</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9596223558616217</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.618746174900141</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2156708480315712</v>
       </c>
     </row>
@@ -2838,72 +2820,66 @@
         <v>1.428692508409738e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.01926923935371736</v>
+        <v>6.149780534295652e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.238395039364692</v>
+        <v>1.18751421609697e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.149780534295652e-07</v>
+        <v>0.02318810727123755</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.18751421609697e-06</v>
+        <v>0.2181238122671182</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.02318810727123755</v>
+        <v>0.04803565488695057</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2181238122671182</v>
+        <v>1.810842332573608</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04803565488695057</v>
+        <v>1.711141558541496</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.760633842027594</v>
+        <v>4.033370447596877</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.711141558541496</v>
+        <v>1.30295447821233e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.033370447596877</v>
+        <v>449556117.4418184</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.30295447821233e-16</v>
+        <v>2.617574227503228e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>449556117.4418184</v>
+        <v>26.3328015671081</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.617574227503228e-07</v>
+        <v>0.0001641934105191272</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>26.3328015671081</v>
+        <v>9.730654956910174</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001641934105191272</v>
+        <v>1.190421425470406</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.730654956910174</v>
+        <v>0.01554675912595781</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.190421425470406</v>
+        <v>2.725202270915562</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01554675912595781</v>
+        <v>0.9596949755762008</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.725202270915562</v>
+        <v>1.65067509254555</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9596949755762008</v>
+        <v>22</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.65067509254555</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2230381263223447</v>
       </c>
     </row>
@@ -2918,72 +2894,66 @@
         <v>1.392679020511371e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1191471976100724</v>
+        <v>4.717360278553938e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.416525537639952</v>
+        <v>1.189566182918949e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.717360278553938e-07</v>
+        <v>0.006389267889047817</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.189566182918949e-06</v>
+        <v>0.1813044504174122</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.006389267889047817</v>
+        <v>0.03285707198995269</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1813044504174122</v>
+        <v>1.805925836664332</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03285707198995269</v>
+        <v>1.847597555102845</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.758585650271666</v>
+        <v>3.89985738488814</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.847597555102845</v>
+        <v>1.444510486622333e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.89985738488814</v>
+        <v>405141873.9241213</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.444510486622333e-16</v>
+        <v>2.898412167455632e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>405141873.9241213</v>
+        <v>23.7101861724288</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.898412167455632e-07</v>
+        <v>0.0001328000006668517</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>23.7101861724288</v>
+        <v>7.248297183938327</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001328000006668517</v>
+        <v>1.594413042031452</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.248297183938327</v>
+        <v>0.006977021477491134</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.594413042031452</v>
+        <v>3.111992474608946</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006977021477491134</v>
+        <v>0.9584179185723358</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.111992474608946</v>
+        <v>1.628296576296334</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9584179185723358</v>
+        <v>22</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.628296576296334</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2443454155300003</v>
       </c>
     </row>
@@ -2998,72 +2968,66 @@
         <v>1.393637412025187e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.1207361912685507</v>
+        <v>4.216647026672777e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.421877694314858</v>
+        <v>1.189432238963011e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.216647026672777e-07</v>
+        <v>-0.007659834459942129</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.189432238963011e-06</v>
+        <v>0.1465894827620133</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.007659834459942129</v>
+        <v>0.02151309040180442</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1465894827620133</v>
+        <v>1.791725816326733</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02151309040180442</v>
+        <v>1.936682391971761</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.735478608477693</v>
+        <v>3.880285943933066</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.936682391971761</v>
+        <v>1.459118919776082e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.880285943933066</v>
+        <v>392416656.185629</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.459118919776082e-16</v>
+        <v>2.981654875399057e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>392416656.185629</v>
+        <v>22.46909365190033</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.981654875399057e-07</v>
+        <v>0.0001226688612660369</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>22.46909365190033</v>
+        <v>6.863056830448443</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001226688612660369</v>
+        <v>1.646514981564327</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.863056830448443</v>
+        <v>0.005777893386806943</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.646514981564327</v>
+        <v>3.161520479895306</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005777893386806943</v>
+        <v>0.9581018404758855</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.161520479895306</v>
+        <v>1.669572702439092</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9581018404758855</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.669572702439092</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2435769128210456</v>
       </c>
     </row>
@@ -3078,72 +3042,66 @@
         <v>1.410098946366014e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1222318448629604</v>
+        <v>4.239512782444721e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.442837630984781</v>
+        <v>1.187570077412596e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.239512782444721e-07</v>
+        <v>-0.01826298267153884</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.187570077412596e-06</v>
+        <v>0.1189832083074376</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01826298267153884</v>
+        <v>0.01447140607100454</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1189832083074376</v>
+        <v>1.78820813026189</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01447140607100454</v>
+        <v>1.867675570216297</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.731332772044341</v>
+        <v>3.858645498521442</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.867675570216297</v>
+        <v>1.475531169698538e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.858645498521442</v>
+        <v>388212455.446778</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.475531169698538e-16</v>
+        <v>3.011040976778641e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>388212455.446778</v>
+        <v>22.23756950885157</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.011040976778641e-07</v>
+        <v>0.0001274906310105348</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>22.23756950885157</v>
+        <v>7.919174786346098</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001274906310105348</v>
+        <v>1.250605706885893</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.919174786346098</v>
+        <v>0.007995361924807712</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.250605706885893</v>
+        <v>2.943632278686069</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007995361924807712</v>
+        <v>0.9578435918477431</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.943632278686069</v>
+        <v>1.675574160428298</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9578435918477431</v>
+        <v>18</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.675574160428298</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2390127095302008</v>
       </c>
     </row>
@@ -3158,72 +3116,66 @@
         <v>1.429302654457537e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1485752449195286</v>
+        <v>4.250480545029597e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.469168106874968</v>
+        <v>1.184391593117256e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.250480545029597e-07</v>
+        <v>-0.02604120702722485</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.184391593117256e-06</v>
+        <v>0.09831527252715225</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02604120702722485</v>
+        <v>0.01033279208093566</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09831527252715225</v>
+        <v>1.775937537020583</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01033279208093566</v>
+        <v>1.819268815785428</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.716079438368879</v>
+        <v>3.769418265208105</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.819268815785428</v>
+        <v>1.546213599163328e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.769418265208105</v>
+        <v>350770386.0330124</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.546213599163328e-16</v>
+        <v>3.304232092522553e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>350770386.0330124</v>
+        <v>19.02459105195854</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.304232092522553e-07</v>
+        <v>0.0001376055801766149</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>19.02459105195854</v>
+        <v>8.545327683064903</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001376055801766149</v>
+        <v>1.279999643088974</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.545327683064903</v>
+        <v>0.01004832070817302</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.279999643088974</v>
+        <v>2.826367629039895</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01004832070817302</v>
+        <v>0.9585923874444017</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.826367629039895</v>
+        <v>1.681427164825423</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9585923874444017</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.681427164825423</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.224708326145326</v>
       </c>
     </row>
@@ -3600,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.577991576526623</v>
+        <v>1.522056708176578</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.360555671651089</v>
@@ -3689,7 +3641,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.588142574706605</v>
+        <v>1.529008263230863</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.325809248593789</v>
@@ -3778,7 +3730,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.63329613463755</v>
+        <v>1.559909780034958</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.682617973725414</v>
@@ -3867,7 +3819,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.633066803556332</v>
+        <v>1.564730175152832</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.058752021172486</v>
@@ -3956,7 +3908,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.602722562764924</v>
+        <v>1.543103990897138</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.928997803360575</v>
@@ -4045,7 +3997,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.581590610620406</v>
+        <v>1.528867786848917</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.771290769315124</v>
@@ -4134,7 +4086,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.580755431405365</v>
+        <v>1.524821295416525</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.685553124751206</v>
@@ -4223,7 +4175,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.570697859533586</v>
+        <v>1.520906317715249</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.712436474598527</v>
@@ -4312,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.569196172484319</v>
+        <v>1.514641324404133</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.679953719045389</v>
@@ -4401,7 +4353,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56674092574028</v>
+        <v>1.508382547766504</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.793698077837964</v>
@@ -4490,7 +4442,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.569250841644665</v>
+        <v>1.502234194841865</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.750300653510292</v>
@@ -4579,7 +4531,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.568625019487756</v>
+        <v>1.501940027097696</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.887876556883766</v>
@@ -4668,7 +4620,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.562541822788866</v>
+        <v>1.501040219151177</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.594983436343549</v>
@@ -4757,7 +4709,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.55244511561556</v>
+        <v>1.486435389235018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.907295547413403</v>
@@ -4846,7 +4798,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.551559011783793</v>
+        <v>1.490358109930657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.77283222018642</v>
@@ -4935,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.559322694889499</v>
+        <v>1.496430429761848</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.829366580161581</v>
@@ -5024,7 +4976,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.545531438062128</v>
+        <v>1.480306120795725</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.984924928763849</v>
@@ -5113,7 +5065,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546057152739339</v>
+        <v>1.479617541102166</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.047021549267891</v>
@@ -5202,7 +5154,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.55774797029769</v>
+        <v>1.48473613640171</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.772476573042733</v>
@@ -5291,7 +5243,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.567710997125041</v>
+        <v>1.495706542392236</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.050060501001634</v>
@@ -5380,7 +5332,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.546850847509794</v>
+        <v>1.477968125164007</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.864732945976165</v>
@@ -5469,7 +5421,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.547933425217125</v>
+        <v>1.47554863197595</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.623473327668625</v>
@@ -5558,7 +5510,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542621282567624</v>
+        <v>1.473238992474142</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.051681196992071</v>
@@ -5647,7 +5599,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.539367517381761</v>
+        <v>1.476033543199087</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.900548961850379</v>
@@ -5736,7 +5688,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.552502369263659</v>
+        <v>1.484295952493619</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.789174173651899</v>
@@ -5825,7 +5777,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.54259884210141</v>
+        <v>1.478871490407744</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.840435584765209</v>
@@ -5914,7 +5866,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538086235341184</v>
+        <v>1.474924353696872</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.899531294139657</v>
@@ -6003,7 +5955,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.539048997932526</v>
+        <v>1.474730088866925</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.883270737244882</v>
@@ -6092,7 +6044,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543739590035443</v>
+        <v>1.482973200933656</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.709281707389238</v>
@@ -6181,7 +6133,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.533432655586237</v>
+        <v>1.474638928560553</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.865154001981002</v>
@@ -6270,7 +6222,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.53202584473552</v>
+        <v>1.47795023786158</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.564609312451767</v>
@@ -6359,7 +6311,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.53228124145913</v>
+        <v>1.485697987871509</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.798610747965455</v>
@@ -6448,7 +6400,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.532460909567393</v>
+        <v>1.486462887810255</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.77937598723654</v>
@@ -6537,7 +6489,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535232479549737</v>
+        <v>1.486185398808301</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.602402845835136</v>
@@ -6626,7 +6578,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.536091960787636</v>
+        <v>1.485020773499312</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.589926682161894</v>
@@ -6715,7 +6667,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564593323480523</v>
+        <v>1.508363389743302</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.542071118400779</v>
@@ -6804,7 +6756,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573995009242438</v>
+        <v>1.522474479287968</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.654037342224321</v>
@@ -6893,7 +6845,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.59700029720379</v>
+        <v>1.544084258627127</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.625961656819165</v>
@@ -6982,7 +6934,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616028901892359</v>
+        <v>1.556922099644628</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.897612369432105</v>
@@ -7071,7 +7023,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.609018909124409</v>
+        <v>1.560304457110114</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.730609995589116</v>
@@ -7160,7 +7112,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.624681234502138</v>
+        <v>1.572384671169961</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.323951737059564</v>
@@ -7249,7 +7201,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.623238507222094</v>
+        <v>1.571146122231048</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.184173357388287</v>
@@ -7338,7 +7290,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.621695079661983</v>
+        <v>1.568098760478281</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.3928898484986</v>
@@ -7427,7 +7379,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.583341198618777</v>
+        <v>1.539804303374798</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.81870739460872</v>
@@ -7516,7 +7468,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.598916115702872</v>
+        <v>1.547519622940506</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.686362689046805</v>
@@ -7605,7 +7557,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.597219751130352</v>
+        <v>1.546145764324506</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.686217919363835</v>
@@ -7694,7 +7646,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.611099095856434</v>
+        <v>1.553132301979825</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.771091379397335</v>
@@ -7783,7 +7735,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.605074171522525</v>
+        <v>1.545576958271355</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.743061932341141</v>
@@ -7872,7 +7824,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595157132155516</v>
+        <v>1.541718459109321</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.826842843593615</v>
@@ -7961,7 +7913,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617799666210191</v>
+        <v>1.557069630826569</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.850859977695011</v>
@@ -8050,7 +8002,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603618559488528</v>
+        <v>1.548447081431048</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.905077672087303</v>
@@ -8336,7 +8288,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.58599199014371</v>
+        <v>1.553823269139505</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.717006456343957</v>
@@ -8425,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596317552448189</v>
+        <v>1.561468632394026</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.715147764189355</v>
@@ -8514,7 +8466,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.629246414731713</v>
+        <v>1.587101117287256</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.923062755109932</v>
@@ -8603,7 +8555,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.623318507895668</v>
+        <v>1.585685802912003</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.82351614718127</v>
@@ -8692,7 +8644,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.620404585340357</v>
+        <v>1.587990439838435</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.983032699432619</v>
@@ -8781,7 +8733,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600079111933887</v>
+        <v>1.573698563284602</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.934987959225458</v>
@@ -8870,7 +8822,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601712003282534</v>
+        <v>1.573715470653345</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.684313877463703</v>
@@ -8959,7 +8911,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.593762924131931</v>
+        <v>1.57417946186902</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.820602091268369</v>
@@ -9048,7 +9000,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596014877565236</v>
+        <v>1.569886819946774</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.533115223022878</v>
@@ -9137,7 +9089,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.615522540110143</v>
+        <v>1.585079442317918</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.900851598303645</v>
@@ -9226,7 +9178,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.611291508482035</v>
+        <v>1.576952359427462</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.958540365695059</v>
@@ -9315,7 +9267,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.617135184639493</v>
+        <v>1.585433524009347</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.887429916060002</v>
@@ -9404,7 +9356,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613768922777157</v>
+        <v>1.58704013083732</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.675247474940337</v>
@@ -9493,7 +9445,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.61036332593207</v>
+        <v>1.576715881693711</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.135358806932295</v>
@@ -9582,7 +9534,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.622688948615551</v>
+        <v>1.590247396815</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.96799439350288</v>
@@ -9671,7 +9623,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.628284933872273</v>
+        <v>1.594020628141629</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.057539109342813</v>
@@ -9760,7 +9712,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.613102763923927</v>
+        <v>1.57742211988399</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.324795805319395</v>
@@ -9849,7 +9801,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.610376885664739</v>
+        <v>1.571164663840046</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.190266544146811</v>
@@ -9938,7 +9890,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.619924518869545</v>
+        <v>1.574730797909095</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.826174452475122</v>
@@ -10027,7 +9979,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613092403036366</v>
+        <v>1.569433444281912</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.046534346764004</v>
@@ -10116,7 +10068,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602128613784892</v>
+        <v>1.558214409981883</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.157326187137671</v>
@@ -10205,7 +10157,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.595594747541718</v>
+        <v>1.547009690978945</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.839054486660919</v>
@@ -10294,7 +10246,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.591549452013686</v>
+        <v>1.539601333585702</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.168560243954311</v>
@@ -10383,7 +10335,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.586319154202906</v>
+        <v>1.537784574959905</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.012055966316352</v>
@@ -10472,7 +10424,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.594811941296948</v>
+        <v>1.542826536151206</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.182275279759967</v>
@@ -10561,7 +10513,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.605522837570523</v>
+        <v>1.552414395206913</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.902379820990672</v>
@@ -10650,7 +10602,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.603394342844736</v>
+        <v>1.550191601237803</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.129057893252826</v>
@@ -10739,7 +10691,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.601488323876568</v>
+        <v>1.550022214288896</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.967044152309977</v>
@@ -10828,7 +10780,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.6123126843914</v>
+        <v>1.563705308930641</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.021021760322479</v>
@@ -10917,7 +10869,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.600728301399064</v>
+        <v>1.553893498969036</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.030426423383529</v>
@@ -11006,7 +10958,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.602801854595811</v>
+        <v>1.560241168113224</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.653511446865673</v>
@@ -11095,7 +11047,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.604368908908029</v>
+        <v>1.56984068352052</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.880068249803539</v>
@@ -11184,7 +11136,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.610121922122743</v>
+        <v>1.580361243760134</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.942411825550157</v>
@@ -11273,7 +11225,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615618298690263</v>
+        <v>1.58481668561162</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.866687460019688</v>
@@ -11362,7 +11314,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618288627205335</v>
+        <v>1.586369554985518</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.79547203115937</v>
@@ -11451,7 +11403,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.638991372564926</v>
+        <v>1.603364347444758</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.05856097673283</v>
@@ -11540,7 +11492,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.661183135388444</v>
+        <v>1.628796658428299</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.969173150391066</v>
@@ -11629,7 +11581,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.675192680311234</v>
+        <v>1.646706685130276</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.048444131801585</v>
@@ -11718,7 +11670,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.685986896612454</v>
+        <v>1.653839072124713</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.847927739056052</v>
@@ -11807,7 +11759,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.677830788727954</v>
+        <v>1.653857634017859</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.113655644648992</v>
@@ -11896,7 +11848,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.676335197781381</v>
+        <v>1.652928301594055</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.990897126612745</v>
@@ -11985,7 +11937,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.672972029249023</v>
+        <v>1.648643562217867</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.013717519738396</v>
@@ -12074,7 +12026,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.674861941526269</v>
+        <v>1.64310647263257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.13604013068848</v>
@@ -12163,7 +12115,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.621593702135734</v>
+        <v>1.601155747053957</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.732261172584302</v>
@@ -12252,7 +12204,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631611578961078</v>
+        <v>1.608634561007038</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.627540811643708</v>
@@ -12341,7 +12293,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.633437230857148</v>
+        <v>1.610774314161683</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.590718769124938</v>
@@ -12430,7 +12382,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.649565467132079</v>
+        <v>1.621858270467295</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.759133133602074</v>
@@ -12519,7 +12471,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.638915136489949</v>
+        <v>1.606274941567433</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.57974926171547</v>
@@ -12608,7 +12560,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624566632085258</v>
+        <v>1.597241064062808</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.626996865767955</v>
@@ -12697,7 +12649,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.641048343533956</v>
+        <v>1.604277733824072</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.657636319004338</v>
@@ -12786,7 +12738,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.629172635758896</v>
+        <v>1.594966834525281</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.728274984407718</v>
@@ -13072,7 +13024,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.68237264679073</v>
+        <v>1.659349958128602</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.709352187160405</v>
@@ -13161,7 +13113,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.694460076550002</v>
+        <v>1.669215604822042</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.670998141601424</v>
@@ -13250,7 +13202,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729055676374959</v>
+        <v>1.700426598482092</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.056941934263314</v>
@@ -13339,7 +13291,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.728769162894453</v>
+        <v>1.702030591756581</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.239477912175717</v>
@@ -13428,7 +13380,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.723991871507506</v>
+        <v>1.711611176077356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.833778600244178</v>
@@ -13517,7 +13469,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.708354247612487</v>
+        <v>1.701700089244694</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.81679403473214</v>
@@ -13606,7 +13558,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.719543709096924</v>
+        <v>1.713514291913688</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.030198380207164</v>
@@ -13695,7 +13647,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.706347594525461</v>
+        <v>1.70706687423255</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.120461773110988</v>
@@ -13784,7 +13736,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700975409782998</v>
+        <v>1.695166614345232</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.90345127713031</v>
@@ -13873,7 +13825,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.693663054247993</v>
+        <v>1.688905264734724</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.080916226108579</v>
@@ -13962,7 +13914,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.698192286355728</v>
+        <v>1.691206401313874</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.06423496594204</v>
@@ -14051,7 +14003,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.705046878258607</v>
+        <v>1.700005919963603</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.045208748051466</v>
@@ -14140,7 +14092,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.696993527938157</v>
+        <v>1.693268169575795</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.058350945970225</v>
@@ -14229,7 +14181,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.682375931867266</v>
+        <v>1.672743626248712</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.953100197250998</v>
@@ -14318,7 +14270,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677727035461098</v>
+        <v>1.669896461575173</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.138528505287605</v>
@@ -14407,7 +14359,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.679332688508239</v>
+        <v>1.670499957381668</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.014599457145824</v>
@@ -14496,7 +14448,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.669673824309952</v>
+        <v>1.658461429959049</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.830944888634255</v>
@@ -14585,7 +14537,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.664366676935132</v>
+        <v>1.647991001079859</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.993450653569188</v>
@@ -14674,7 +14626,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.665820463599672</v>
+        <v>1.645397513393376</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.979423301675361</v>
@@ -14763,7 +14715,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.661969260210674</v>
+        <v>1.632049221623834</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.9526980436595</v>
@@ -14852,7 +14804,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635154364371006</v>
+        <v>1.604029323785467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.238583115484264</v>
@@ -14941,7 +14893,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.62739319221111</v>
+        <v>1.583678161528224</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.797048053535929</v>
@@ -15030,7 +14982,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.619429610634685</v>
+        <v>1.571264135278313</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.28580786636484</v>
@@ -15119,7 +15071,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608986338769793</v>
+        <v>1.565616873605743</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.21632045586654</v>
@@ -15208,7 +15160,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.611786167203034</v>
+        <v>1.560542207702248</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.972239945888812</v>
@@ -15297,7 +15249,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.600397517896357</v>
+        <v>1.554126016291752</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.165862067449734</v>
@@ -15386,7 +15338,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594397609446276</v>
+        <v>1.548194459281789</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.219213539198697</v>
@@ -15475,7 +15427,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.593655211886537</v>
+        <v>1.551103729710295</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.189158948363148</v>
@@ -15564,7 +15516,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.603985710057159</v>
+        <v>1.563199181227834</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.020622095667922</v>
@@ -15653,7 +15605,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601486390051812</v>
+        <v>1.561600700251216</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.166918521536291</v>
@@ -15742,7 +15694,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611146365502595</v>
+        <v>1.573812740649474</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.918003279878857</v>
@@ -15831,7 +15783,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.608945260641996</v>
+        <v>1.573885464499169</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.170422068218878</v>
@@ -15920,7 +15872,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634302876616842</v>
+        <v>1.603164033126259</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.241029011507021</v>
@@ -16009,7 +15961,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.639225263916064</v>
+        <v>1.609206353120433</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.057897970967592</v>
@@ -16098,7 +16050,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.642518651616886</v>
+        <v>1.612612985810301</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.915863207467428</v>
@@ -16187,7 +16139,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.670395092172088</v>
+        <v>1.638746036875099</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.189156586362787</v>
@@ -16276,7 +16228,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.682179083356399</v>
+        <v>1.658639255686623</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.017719319754162</v>
@@ -16365,7 +16317,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.704867723156057</v>
+        <v>1.687365955626986</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.995596825192601</v>
@@ -16454,7 +16406,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728340263587041</v>
+        <v>1.709840042275481</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.100061655508345</v>
@@ -16543,7 +16495,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.741317366328196</v>
+        <v>1.733730403087263</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.990156382201886</v>
@@ -16632,7 +16584,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.761489378072727</v>
+        <v>1.746683441756345</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.887718115205458</v>
@@ -16721,7 +16673,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.764119614396642</v>
+        <v>1.749217274344603</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.038874163970546</v>
@@ -16810,7 +16762,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.776777642951998</v>
+        <v>1.761515744023331</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.132729588457023</v>
@@ -16899,7 +16851,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.765617271868618</v>
+        <v>1.755958497774789</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.136499480866026</v>
@@ -16988,7 +16940,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.770622354377165</v>
+        <v>1.754968118614185</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.156608296992577</v>
@@ -17077,7 +17029,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.772203725702749</v>
+        <v>1.75899507434022</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.052113454300607</v>
@@ -17166,7 +17118,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.785693016202014</v>
+        <v>1.76632185595433</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.123094237541716</v>
@@ -17255,7 +17207,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.763315253872872</v>
+        <v>1.739986996430344</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.146972277536148</v>
@@ -17344,7 +17296,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.754835506721495</v>
+        <v>1.735414090641281</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.238630957440407</v>
@@ -17433,7 +17385,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.765141101099686</v>
+        <v>1.738159130464556</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.050749768258719</v>
@@ -17522,7 +17474,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.758899501140503</v>
+        <v>1.730353780974244</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.059489071027928</v>
@@ -17808,7 +17760,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615427510502564</v>
+        <v>1.564050470665611</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.584073225898157</v>
@@ -17897,7 +17849,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.621933117207113</v>
+        <v>1.565500582965105</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.526355072545567</v>
@@ -17986,7 +17938,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.661042088024425</v>
+        <v>1.59426993861615</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.699408511896753</v>
@@ -18075,7 +18027,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.65444103429898</v>
+        <v>1.590217510123539</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.898927675956639</v>
@@ -18164,7 +18116,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619862237924143</v>
+        <v>1.565314256509427</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.655986874391213</v>
@@ -18253,7 +18205,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.588933597976811</v>
+        <v>1.544951162090248</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.674324218744533</v>
@@ -18342,7 +18294,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.587921157757865</v>
+        <v>1.543903279006554</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.62535601509314</v>
@@ -18431,7 +18383,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.576384522786782</v>
+        <v>1.544256090043054</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.714438849653715</v>
@@ -18520,7 +18472,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566335879344699</v>
+        <v>1.529093841165094</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.862744294254221</v>
@@ -18609,7 +18561,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.548912177029684</v>
+        <v>1.51373285417791</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.60193986814767</v>
@@ -18698,7 +18650,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543385102339789</v>
+        <v>1.512313164173401</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.728055639252964</v>
@@ -18787,7 +18739,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.549164082055994</v>
+        <v>1.522506164480862</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.754171362867997</v>
@@ -18876,7 +18828,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.549177703226651</v>
+        <v>1.527981982334208</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.611431082006244</v>
@@ -18965,7 +18917,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.540812440763376</v>
+        <v>1.516389135186435</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.888206582165275</v>
@@ -19054,7 +19006,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538630277334567</v>
+        <v>1.516481125328919</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.699398207866256</v>
@@ -19143,7 +19095,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.541690269153245</v>
+        <v>1.515583042535376</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.698639653292052</v>
@@ -19232,7 +19184,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.529957390350205</v>
+        <v>1.503468030196357</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.975277270086213</v>
@@ -19321,7 +19273,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.528913764196609</v>
+        <v>1.498502332163865</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.894535850441435</v>
@@ -19410,7 +19362,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.539665025495489</v>
+        <v>1.505128706072762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.713960764921426</v>
@@ -19499,7 +19451,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.561373095978076</v>
+        <v>1.523692566844271</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.882198739970681</v>
@@ -19588,7 +19540,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.545173309457457</v>
+        <v>1.504462162270402</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.938703049367683</v>
@@ -19677,7 +19629,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.545484429797762</v>
+        <v>1.494307840027659</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.758410984234372</v>
@@ -19766,7 +19718,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533719959825677</v>
+        <v>1.480738516422998</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.082844049118674</v>
@@ -19855,7 +19807,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.534876768498783</v>
+        <v>1.486860996770702</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.9245384615986</v>
@@ -19944,7 +19896,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.549794644199799</v>
+        <v>1.491066717957085</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.91092992642829</v>
@@ -20033,7 +19985,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.544711225933215</v>
+        <v>1.485289476560602</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.990815958272343</v>
@@ -20122,7 +20074,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.535404402995836</v>
+        <v>1.476061371657923</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.106672652487749</v>
@@ -20211,7 +20163,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.528839374908761</v>
+        <v>1.468951516250151</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.07488929770956</v>
@@ -20300,7 +20252,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543596950268141</v>
+        <v>1.483198931258468</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.831927659235613</v>
@@ -20389,7 +20341,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.537353557208276</v>
+        <v>1.479741297360791</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.948185351790516</v>
@@ -20478,7 +20430,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.536354419725929</v>
+        <v>1.4832253523042</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.6931967503418</v>
@@ -20567,7 +20519,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.542926651478547</v>
+        <v>1.490785767477616</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.847520485356556</v>
@@ -20656,7 +20608,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.537117729259685</v>
+        <v>1.489148883898607</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.979878087262127</v>
@@ -20745,7 +20697,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.538239828094596</v>
+        <v>1.48916555081587</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.827936045798315</v>
@@ -20834,7 +20786,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.541944850782833</v>
+        <v>1.49158982222529</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.002962595054211</v>
@@ -20923,7 +20875,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.569241619753091</v>
+        <v>1.518244239671845</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.73653623069003</v>
@@ -21012,7 +20964,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57841348224839</v>
+        <v>1.534491493453503</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.831345921810513</v>
@@ -21101,7 +21053,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.599430371714302</v>
+        <v>1.552217071931943</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.894236371782252</v>
@@ -21190,7 +21142,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605896878535683</v>
+        <v>1.559569912760728</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.843692416751503</v>
@@ -21279,7 +21231,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.597742068752112</v>
+        <v>1.559797180732921</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.056929102200522</v>
@@ -21368,7 +21320,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.626940824825933</v>
+        <v>1.585975885603748</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.78394188913349</v>
@@ -21457,7 +21409,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627153428824297</v>
+        <v>1.590093515510526</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.025661133186492</v>
@@ -21546,7 +21498,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634859195079023</v>
+        <v>1.599109174440695</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.024107321346134</v>
@@ -21635,7 +21587,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.595710751796051</v>
+        <v>1.569066217986996</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.785472578560639</v>
@@ -21724,7 +21676,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.595857668271912</v>
+        <v>1.565775660612518</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.781213008836968</v>
@@ -21813,7 +21765,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.606655068091734</v>
+        <v>1.576313270884005</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.668204784742739</v>
@@ -21902,7 +21854,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.61370552477153</v>
+        <v>1.580720389095606</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.770051089838748</v>
@@ -21991,7 +21943,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.627620131162551</v>
+        <v>1.588902071432059</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.699474470144044</v>
@@ -22080,7 +22032,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.626780426951194</v>
+        <v>1.58865654706895</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.6637596003795</v>
@@ -22169,7 +22121,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.640143323832488</v>
+        <v>1.59460743476737</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.76794859203128</v>
@@ -22258,7 +22210,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.638350230611598</v>
+        <v>1.591010628373855</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.754184639009632</v>
@@ -22544,7 +22496,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.508732264252466</v>
+        <v>1.471185941973125</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.530706433434553</v>
@@ -22633,7 +22585,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.51452018446872</v>
+        <v>1.478772190512513</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.585591788816636</v>
@@ -22722,7 +22674,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.544319014592683</v>
+        <v>1.504662566313894</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.838540207381239</v>
@@ -22811,7 +22763,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.544268744359961</v>
+        <v>1.503261662424777</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.824214843577195</v>
@@ -22900,7 +22852,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.50583915246019</v>
+        <v>1.464668337457668</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.029199141757814</v>
@@ -22989,7 +22941,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.463836619928391</v>
+        <v>1.433751032788644</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.074428017188261</v>
@@ -23078,7 +23030,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.468583442055722</v>
+        <v>1.433429216452529</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.10911740873333</v>
@@ -23167,7 +23119,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.461025624705217</v>
+        <v>1.432806220013644</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.11268926413914</v>
@@ -23256,7 +23208,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.459651365726406</v>
+        <v>1.42665072705314</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.069706184332841</v>
@@ -23345,7 +23297,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.465280660364734</v>
+        <v>1.431357499095639</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.074061376069265</v>
@@ -23434,7 +23386,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.471530638523629</v>
+        <v>1.431695499317594</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.119294925733592</v>
@@ -23523,7 +23475,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.484224666535442</v>
+        <v>1.44727945021809</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.181959160939965</v>
@@ -23612,7 +23564,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.481991567620941</v>
+        <v>1.446897268737556</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.161390837637464</v>
@@ -23701,7 +23653,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.476921191687093</v>
+        <v>1.438967297531262</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.190582935505103</v>
@@ -23790,7 +23742,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.483036193109428</v>
+        <v>1.441811967362072</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.172980492207991</v>
@@ -23879,7 +23831,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.496021039532875</v>
+        <v>1.449924673863849</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.226461517229773</v>
@@ -23968,7 +23920,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.49069477544031</v>
+        <v>1.444453085967041</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.232257218026816</v>
@@ -24057,7 +24009,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.47620031143751</v>
+        <v>1.427651009615835</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.238012395179164</v>
@@ -24146,7 +24098,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.485777475253611</v>
+        <v>1.437557338216395</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.217626558374912</v>
@@ -24235,7 +24187,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.510590523483716</v>
+        <v>1.461499541263379</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.155452182563814</v>
@@ -24324,7 +24276,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514902231773925</v>
+        <v>1.460350560841742</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.870573051096395</v>
@@ -24413,7 +24365,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.512432773504858</v>
+        <v>1.450482602114922</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.676952271091714</v>
@@ -24502,7 +24454,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.506683634974517</v>
+        <v>1.446319073888438</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.847210527534075</v>
@@ -24591,7 +24543,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.51007953323428</v>
+        <v>1.456224121518773</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.846716674962614</v>
@@ -24680,7 +24632,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.525972941819342</v>
+        <v>1.463884071595769</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.730413640303766</v>
@@ -24769,7 +24721,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.515645410974738</v>
+        <v>1.457797288575426</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.812767923966775</v>
@@ -24858,7 +24810,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.505248170271021</v>
+        <v>1.448070729146926</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.917073029076515</v>
@@ -24947,7 +24899,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.504560304221055</v>
+        <v>1.44900285331271</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.794953459164199</v>
@@ -25036,7 +24988,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.51485329423016</v>
+        <v>1.459451681053175</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.814543947239593</v>
@@ -25125,7 +25077,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.50938981590256</v>
+        <v>1.456516337124156</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.841229478387449</v>
@@ -25214,7 +25166,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.506908533153198</v>
+        <v>1.45417633496995</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.617471020909102</v>
@@ -25303,7 +25255,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504565671086218</v>
+        <v>1.453341613104398</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.727513747550625</v>
@@ -25392,7 +25344,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.502104979584489</v>
+        <v>1.455250431390354</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.67270021513845</v>
@@ -25481,7 +25433,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.507142249106645</v>
+        <v>1.456744476174659</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.694892638822744</v>
@@ -25570,7 +25522,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.509572738508799</v>
+        <v>1.456523621969939</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.747740725453296</v>
@@ -25659,7 +25611,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.534803303413234</v>
+        <v>1.480673873938187</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.613195505882824</v>
@@ -25748,7 +25700,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.546076837580236</v>
+        <v>1.497211828040546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.66200702077766</v>
@@ -25837,7 +25789,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560561319400687</v>
+        <v>1.508725951474027</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.725438835898679</v>
@@ -25926,7 +25878,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558586618172712</v>
+        <v>1.507191085587692</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.700730205547476</v>
@@ -26015,7 +25967,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.536198952543929</v>
+        <v>1.495667150338608</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.653079787855938</v>
@@ -26104,7 +26056,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.530900058080761</v>
+        <v>1.494960338003698</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.588424331252001</v>
@@ -26193,7 +26145,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.527546784828201</v>
+        <v>1.492836200507191</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.860424629858231</v>
@@ -26282,7 +26234,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.523113636197927</v>
+        <v>1.493072364912303</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.83088185092255</v>
@@ -26371,7 +26323,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.466809227093711</v>
+        <v>1.440116887549333</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.162035054758669</v>
@@ -26460,7 +26412,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463277643119473</v>
+        <v>1.438568440597279</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.177131793403418</v>
@@ -26549,7 +26501,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.462366072297189</v>
+        <v>1.442338907062781</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.161487551164422</v>
@@ -26638,7 +26590,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.478834753121316</v>
+        <v>1.456969188256112</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.218328973152757</v>
@@ -26727,7 +26679,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501604985643154</v>
+        <v>1.471920422096682</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.26877987134687</v>
@@ -26816,7 +26768,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.497793740966099</v>
+        <v>1.46251846457357</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.221181556241424</v>
@@ -26905,7 +26857,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.510181629459113</v>
+        <v>1.472515828324426</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.198612316346913</v>
@@ -26994,7 +26946,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.50308189202028</v>
+        <v>1.461773081873355</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.248768926633343</v>
@@ -27280,7 +27232,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.357299399255586</v>
+        <v>1.372979515992255</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.624456793796055</v>
@@ -27369,7 +27321,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.376779665492556</v>
+        <v>1.395740906523332</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.346961297067427</v>
@@ -27458,7 +27410,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.391689763023253</v>
+        <v>1.415531680778863</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.798128734994097</v>
@@ -27547,7 +27499,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.401707897599786</v>
+        <v>1.429233489063845</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.597156190922195</v>
@@ -27636,7 +27588,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.371248416704634</v>
+        <v>1.392546582071887</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.01405401879028</v>
@@ -27725,7 +27677,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.339461103200767</v>
+        <v>1.362697133160483</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.988263576928352</v>
@@ -27814,7 +27766,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.336017546952506</v>
+        <v>1.360381678827387</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.000169963339111</v>
@@ -27903,7 +27855,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.323652477240361</v>
+        <v>1.347495107765883</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.037310603819121</v>
@@ -27992,7 +27944,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.316545424723742</v>
+        <v>1.337691950845332</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.020534323945336</v>
@@ -28081,7 +28033,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.330112804391211</v>
+        <v>1.352764428892607</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.056742129102074</v>
@@ -28170,7 +28122,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.34866585055352</v>
+        <v>1.369226043457042</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.005211168324094</v>
@@ -28259,7 +28211,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.368736931515291</v>
+        <v>1.392717745728308</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.018622107369319</v>
@@ -28348,7 +28300,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.35608276913825</v>
+        <v>1.38489119122603</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.059230753444184</v>
@@ -28437,7 +28389,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.356604238673228</v>
+        <v>1.384505821361349</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.062828271334079</v>
@@ -28526,7 +28478,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.373766935149732</v>
+        <v>1.406154236499191</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.012602376343739</v>
@@ -28615,7 +28567,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.379540044067571</v>
+        <v>1.416929179614582</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.072162350284009</v>
@@ -28704,7 +28656,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.375541525700227</v>
+        <v>1.413081053413578</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.036641632964181</v>
@@ -28793,7 +28745,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.387365720086309</v>
+        <v>1.423064079167142</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.055538407457184</v>
@@ -28882,7 +28834,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.39376621499837</v>
+        <v>1.428724940134155</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.048465982102014</v>
@@ -28971,7 +28923,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.446531498078654</v>
+        <v>1.48559535756305</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.259261737144081</v>
@@ -29060,7 +29012,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.449511637509452</v>
+        <v>1.482348717379212</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.555054239826864</v>
@@ -29149,7 +29101,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.42870162900972</v>
+        <v>1.45533958275316</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.624100047881738</v>
@@ -29238,7 +29190,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.416853160346549</v>
+        <v>1.443620017047055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.642447116535931</v>
@@ -29327,7 +29279,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.414958731540669</v>
+        <v>1.446609302965363</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.621022924373938</v>
@@ -29416,7 +29368,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.419038588992636</v>
+        <v>1.445297052298831</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.498826949158537</v>
@@ -29505,7 +29457,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.411097831027751</v>
+        <v>1.439279788842618</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.535005284543082</v>
@@ -29594,7 +29546,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.399798251451997</v>
+        <v>1.426427362522138</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.510480706092659</v>
@@ -29683,7 +29635,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.393662047394257</v>
+        <v>1.413531803955582</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.370205615060921</v>
@@ -29772,7 +29724,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.404908552085437</v>
+        <v>1.426803536604422</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.565657331579414</v>
@@ -29861,7 +29813,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.396394009650127</v>
+        <v>1.41639615689993</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.612430220104736</v>
@@ -29950,7 +29902,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.391474648330512</v>
+        <v>1.40858078044331</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.634066131206925</v>
@@ -30039,7 +29991,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.385591240107616</v>
+        <v>1.405419248394286</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.548237896070272</v>
@@ -30128,7 +30080,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.373604345307655</v>
+        <v>1.392952779662697</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.59187163544284</v>
@@ -30217,7 +30169,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.368822840366769</v>
+        <v>1.385715999899382</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.66773378464497</v>
@@ -30306,7 +30258,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.381695734890446</v>
+        <v>1.398661371107738</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.400465865591017</v>
@@ -30395,7 +30347,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.384437871157385</v>
+        <v>1.40894476044785</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.623971021163455</v>
@@ -30484,7 +30436,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.420755697235622</v>
+        <v>1.444652480859401</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.341075295504761</v>
@@ -30573,7 +30525,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.440956550621758</v>
+        <v>1.467168856938326</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.626156033599825</v>
@@ -30662,7 +30614,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.447464481630572</v>
+        <v>1.469430684052597</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.5953859439827</v>
@@ -30751,7 +30703,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.443450573458136</v>
+        <v>1.469086179132468</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.659086510655464</v>
@@ -30840,7 +30792,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.453028146136914</v>
+        <v>1.478856718401552</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.652234475848223</v>
@@ -30929,7 +30881,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.455128058360017</v>
+        <v>1.480839862800565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.564940668267795</v>
@@ -31018,7 +30970,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.472155956492942</v>
+        <v>1.499225821067405</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.470058112017377</v>
@@ -31107,7 +31059,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.369974482324134</v>
+        <v>1.391476467140448</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.793081442377984</v>
@@ -31196,7 +31148,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.367602380275295</v>
+        <v>1.390229963408044</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.777607584223236</v>
@@ -31285,7 +31237,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.393443432895626</v>
+        <v>1.417587037847545</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.77083710021873</v>
@@ -31374,7 +31326,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.419661835416974</v>
+        <v>1.444481384016973</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.779412594767072</v>
@@ -31463,7 +31415,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.431003696551125</v>
+        <v>1.45456305428387</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.757154136161211</v>
@@ -31552,7 +31504,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.438510588854546</v>
+        <v>1.460620739232151</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.740640156539456</v>
@@ -31641,7 +31593,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.443238273931679</v>
+        <v>1.461391305399177</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.77150106167168</v>
@@ -31730,7 +31682,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.450168067120921</v>
+        <v>1.46498926653561</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.742970169566996</v>
